--- a/Documentos/Documentos Excel - Hojas de calculo/Restaurante Vis.xlsx
+++ b/Documentos/Documentos Excel - Hojas de calculo/Restaurante Vis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\La pagina web de Hernan\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\La pagina web de Hernan\Documentos\Documentos Excel - Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0A941-2E73-4968-BFE2-F5190B02CC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB11188-8D75-4BC2-A245-A71914DF5E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,10 @@
     <t>Perdida por plato No Vendido</t>
   </si>
   <si>
-    <t xml:space="preserve">Ganancia  por plato </t>
-  </si>
-  <si>
     <t>Ganancia por plato Vendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganancia por Unidad de plato </t>
   </si>
 </sst>
 </file>
@@ -512,18 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,6 +525,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J26"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,77 +1167,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1843,32 +1843,32 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="13"/>
       <c r="F26" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2967,11 +2967,6 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -2986,6 +2981,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <printOptions headings="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
